--- a/queries/TABLES.xlsx
+++ b/queries/TABLES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\sayho-techblog-scraper\queries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EBC32F-B838-475C-9CB7-AEE85ABCCC39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1E346B-E3D7-4696-8F3C-6719779CB1A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICTBLOGS" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>INTEGER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +264,38 @@
   </si>
   <si>
     <t>TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스트제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBTITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTE_DTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1005,21 +1037,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604754-8439-4FFD-AF8D-0EC1C944B864}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
@@ -1030,19 +1064,25 @@
         <v>59</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -1050,22 +1090,28 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -1073,7 +1119,7 @@
         <v>58</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>14</v>
@@ -1082,14 +1128,21 @@
         <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/queries/TABLES.xlsx
+++ b/queries/TABLES.xlsx
@@ -4,18 +4,45 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="10755" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22650" windowHeight="10755" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="ICTBLOGS" sheetId="1" r:id="rId4"/>
     <x:sheet name="ICTPOSTS" sheetId="2" r:id="rId5"/>
   </x:sheets>
-  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="4294967295"/>
+  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
+  <x:si>
+    <x:t>https://developers.googleblog.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">INSERT INTO ICTBLOGS </x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://blog.banksalad.com/tech</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://engineering.vcnc.co.kr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSERT INTO ICTBLOGS VALUES('1001','우아한형제들','wooahan','wooahan','https://woowabros.github.io','20201129');</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSERT INTO ICTBLOGS VALUES('1006','구글','google','google','https://developers.googleblog.com','20201129');</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSERT INTO ICTBLOGS VALUES('1010','카카오','Kakao','kakao','https://tech.kakao.com/blog','20201129');</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/techcourse/2020/11/27/techcourse-level4-retrospective.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSERT INTO ICTBLOGS VALUES('1003','쿠팡','coupang','coupang','https://medium.com/coupang-tech/technote/home','20201129');</x:t>
+  </x:si>
   <x:si>
     <x:t>VARCHAR(200)</x:t>
   </x:si>
@@ -26,97 +53,160 @@
     <x:t>VARCHAR(100)</x:t>
   </x:si>
   <x:si>
+    <x:t>https://engineering.linecorp.com/ko/blog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://medium.com/coupang-tech/technote/home</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSERT INTO ICTBLOGS VALUES('1004','스포카','spoqa','spoqa','https://spoqa.github.io','20201129');</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSERT INTO ICTBLOGS VALUES('1007','NHN','NHN','nhn','https://meetup.toast.com','20201129');</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSERT INTO ICTBLOGS VALUES('1008','뱅크샐러드','Banksalad','banksalad','https://blog.banksalad.com/tech','20201129');</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST_URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ICTBLOGS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TITLE_EN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TITLE_KR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BASE_URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Banksalad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUBTITLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOTE_DTL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>banksalad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST_SEQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네이버</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카카오</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠팡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스포카</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생성일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라인</x:t>
+  </x:si>
+  <x:si>
     <x:t>nhn</x:t>
   </x:si>
   <x:si>
+    <x:t>NHN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정일</x:t>
+  </x:si>
+  <x:si>
     <x:t>비고</x:t>
   </x:si>
   <x:si>
-    <x:t>수정일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카카오</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NHN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠팡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스포카</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생성일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네이버</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라인</x:t>
-  </x:si>
-  <x:si>
     <x:t>내가 꿈꾸는 프로그래머로서의 삶</x:t>
   </x:si>
   <x:si>
-    <x:t>https://engineering.linecorp.com/ko/blog/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST_URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://developers.googleblog.com/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://blog.banksalad.com/tech/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://medium.com/coupang-tech/technote/home</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/techcourse/2020/11/27/techcourse-level4-retrospective.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TITLE_KR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ICTBLOGS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TITLE_EN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BASE_URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Banksalad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>banksalad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOTE_DTL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SUBTITLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST_SEQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://tech.kakao.com/blog/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://engineering.vcnc.co.kr/</x:t>
+    <x:t>INSERT INTO ICTBLOGS VALUES('1011','VCNC','VCNC','vcnc','http://engineering.vcnc.co.kr','20201129');</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tech.lezhin.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://woowabros.github.io</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://d2.naver.com/home</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://meetup.toast.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tech.kakao.com/blog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>naver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>google</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우아한형제들</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뱅크샐러드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LINE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라우팅 경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>블로그ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INTEGER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INST_DT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UPDT_DT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROUTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>coupang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lezhin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BLOG_ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR(8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사 한글명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>블로그 URL</x:t>
   </x:si>
   <x:si>
     <x:t>spoqa</x:t>
@@ -125,113 +215,59 @@
     <x:t>line</x:t>
   </x:si>
   <x:si>
-    <x:t>google</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뱅크샐러드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lezhin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라우팅 경로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우아한형제들</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LINE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INTEGER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INST_DT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHAR(8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UPDT_DT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROUTE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>블로그 URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>coupang</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BLOG_ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>블로그ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사 한글명</x:t>
+    <x:t>회사 영문명</x:t>
   </x:si>
   <x:si>
     <x:t>wooahan</x:t>
   </x:si>
   <x:si>
-    <x:t>naver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사 영문명</x:t>
-  </x:si>
-  <x:si>
     <x:t>레진코믹스</x:t>
   </x:si>
   <x:si>
+    <x:t>Lezhin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kakao</x:t>
+  </x:si>
+  <x:si>
     <x:t>포스트제목</x:t>
   </x:si>
   <x:si>
-    <x:t>Lezhin</x:t>
-  </x:si>
-  <x:si>
     <x:t>포스트 순번</x:t>
   </x:si>
   <x:si>
+    <x:t>vcnc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VCNC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kakao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TITLE</x:t>
+  </x:si>
+  <x:si>
     <x:t>AUTHOR</x:t>
   </x:si>
   <x:si>
-    <x:t>VCNC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kakao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TITLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kakao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>vcnc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://woowabros.github.io</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://d2.naver.com/home</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://tech.lezhin.com/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://meetup.toast.com/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://spoqa.github.io/</x:t>
+    <x:t>INSERT INTO ICTBLOGS VALUES('1009','레진코믹스','Lezhin','lezhin','https://tech.lezhin.com','20201129');</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSERT INTO ICTBLOGS VALUES('1002','네이버','naver','naver','https://d2.naver.com/home','20201129');</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://spoqa.github.io</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSERT INTO ICTBLOGS VALUES('1005','라인','LINE','line','https://engineering.linecorp.com/ko/blog','20201129');</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="9">
+  <x:fonts count="10">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -294,6 +330,27 @@
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineType val="1"/>
+          <hs:underlineColor rgb="ff0000ff"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
   <x:fills count="4">
     <x:fill>
@@ -396,7 +453,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="13">
+  <x:cellXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
@@ -526,6 +583,9 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle xfId="0" builtinId="0"/>
@@ -1248,7 +1308,7 @@
   <x:dimension ref="A1:H14"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A4" activeCellId="0" sqref="A4:A4"/>
+      <x:selection activeCell="K14" activeCellId="0" sqref="K14:K14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -1260,308 +1320,356 @@
     <x:col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7">
+    <x:row r="1" spans="1:8">
       <x:c r="A1" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B1" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D1" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E1" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F1" s="7" t="s">
-        <x:v>43</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G1" s="7" t="s">
-        <x:v>45</x:v>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H1" t="str">
+        <x:f>CONCATENATE("INSERT INTO ",H3," ")</x:f>
+        <x:v xml:space="preserve">INSERT INTO ICTBLOGS </x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="9" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B2" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D2" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="7" t="s">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F2" s="7" t="s">
-        <x:v>44</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G2" s="7" t="s">
-        <x:v>44</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B3" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C3" s="8" t="s">
-        <x:v>54</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D3" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E3" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F3" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G3" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H3" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:7">
+    <x:row r="4" spans="1:8">
       <x:c r="A4" s="3">
         <x:v>1001</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>40</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C4" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D4" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F4" s="4">
         <x:v>20201129</x:v>
       </x:c>
       <x:c r="G4" s="5"/>
+      <x:c r="H4" t="str">
+        <x:f>CONCATENATE($H$1,"VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"');")</x:f>
+        <x:v>INSERT INTO ICTBLOGS VALUES('1001','우아한형제들','wooahan','wooahan','https://woowabros.github.io','20201129');</x:v>
+      </x:c>
     </x:row>
-    <x:row r="5" spans="1:7">
+    <x:row r="5" spans="1:8">
       <x:c r="A5" s="3">
         <x:v>1002</x:v>
       </x:c>
       <x:c r="B5" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C5" s="5" t="s">
-        <x:v>53</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D5" s="5" t="s">
-        <x:v>53</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E5" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F5" s="4">
         <x:v>20201129</x:v>
       </x:c>
       <x:c r="G5" s="5"/>
+      <x:c r="H5" t="str">
+        <x:f t="shared" ref="H5:H14" si="0">CONCATENATE($H$1,"VALUES('",A5,"','",B5,"','",C5,"','",D5,"','",E5,"','",F5,"');")</x:f>
+        <x:v>INSERT INTO ICTBLOGS VALUES('1002','네이버','naver','naver','https://d2.naver.com/home','20201129');</x:v>
+      </x:c>
     </x:row>
-    <x:row r="6" spans="1:7">
+    <x:row r="6" spans="1:8">
       <x:c r="A6" s="3">
         <x:v>1003</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D6" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E6" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F6" s="4">
         <x:v>20201129</x:v>
       </x:c>
       <x:c r="G6" s="5"/>
+      <x:c r="H6" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v>INSERT INTO ICTBLOGS VALUES('1003','쿠팡','coupang','coupang','https://medium.com/coupang-tech/technote/home','20201129');</x:v>
+      </x:c>
     </x:row>
-    <x:row r="7" spans="1:7">
+    <x:row r="7" spans="1:8">
       <x:c r="A7" s="3">
         <x:v>1004</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>34</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D7" s="5" t="s">
-        <x:v>34</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E7" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F7" s="4">
         <x:v>20201129</x:v>
       </x:c>
       <x:c r="G7" s="5"/>
+      <x:c r="H7" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v>INSERT INTO ICTBLOGS VALUES('1004','스포카','spoqa','spoqa','https://spoqa.github.io','20201129');</x:v>
+      </x:c>
     </x:row>
-    <x:row r="8" spans="1:7">
+    <x:row r="8" spans="1:8">
       <x:c r="A8" s="3">
         <x:v>1005</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D8" s="5" t="s">
-        <x:v>35</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E8" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F8" s="4">
         <x:v>20201129</x:v>
       </x:c>
       <x:c r="G8" s="5"/>
+      <x:c r="H8" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v>INSERT INTO ICTBLOGS VALUES('1005','라인','LINE','line','https://engineering.linecorp.com/ko/blog','20201129');</x:v>
+      </x:c>
     </x:row>
-    <x:row r="9" spans="1:7">
+    <x:row r="9" spans="1:8">
       <x:c r="A9" s="3">
         <x:v>1006</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>36</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D9" s="5" t="s">
-        <x:v>36</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E9" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F9" s="4">
         <x:v>20201129</x:v>
       </x:c>
       <x:c r="G9" s="5"/>
+      <x:c r="H9" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v>INSERT INTO ICTBLOGS VALUES('1006','구글','google','google','https://developers.googleblog.com','20201129');</x:v>
+      </x:c>
     </x:row>
-    <x:row r="10" spans="1:7">
+    <x:row r="10" spans="1:8">
       <x:c r="A10" s="3">
         <x:v>1007</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D10" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E10" s="6" t="s">
-        <x:v>68</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F10" s="4">
         <x:v>20201129</x:v>
       </x:c>
       <x:c r="G10" s="5"/>
+      <x:c r="H10" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v>INSERT INTO ICTBLOGS VALUES('1007','NHN','NHN','nhn','https://meetup.toast.com','20201129');</x:v>
+      </x:c>
     </x:row>
-    <x:row r="11" spans="1:7">
+    <x:row r="11" spans="1:8">
       <x:c r="A11" s="3">
         <x:v>1008</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D11" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E11" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F11" s="4">
         <x:v>20201129</x:v>
       </x:c>
       <x:c r="G11" s="5"/>
+      <x:c r="H11" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v>INSERT INTO ICTBLOGS VALUES('1008','뱅크샐러드','Banksalad','banksalad','https://blog.banksalad.com/tech','20201129');</x:v>
+      </x:c>
     </x:row>
-    <x:row r="12" spans="1:7">
+    <x:row r="12" spans="1:8">
       <x:c r="A12" s="3">
         <x:v>1009</x:v>
       </x:c>
       <x:c r="B12" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C12" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D12" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F12" s="4">
         <x:v>20201129</x:v>
       </x:c>
       <x:c r="G12" s="5"/>
+      <x:c r="H12" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v>INSERT INTO ICTBLOGS VALUES('1009','레진코믹스','Lezhin','lezhin','https://tech.lezhin.com','20201129');</x:v>
+      </x:c>
     </x:row>
-    <x:row r="13" spans="1:7">
+    <x:row r="13" spans="1:8">
       <x:c r="A13" s="3">
         <x:v>1010</x:v>
       </x:c>
       <x:c r="B13" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C13" s="5" t="s">
-        <x:v>63</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D13" s="5" t="s">
-        <x:v>61</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E13" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F13" s="4">
         <x:v>20201129</x:v>
       </x:c>
       <x:c r="G13" s="5"/>
+      <x:c r="H13" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v>INSERT INTO ICTBLOGS VALUES('1010','카카오','Kakao','kakao','https://tech.kakao.com/blog','20201129');</x:v>
+      </x:c>
     </x:row>
-    <x:row r="14" spans="1:7">
+    <x:row r="14" spans="1:8">
       <x:c r="A14" s="3">
         <x:v>1011</x:v>
       </x:c>
       <x:c r="B14" s="5" t="s">
-        <x:v>60</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C14" s="5" t="s">
-        <x:v>60</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D14" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E14" s="6" t="s">
-        <x:v>33</x:v>
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E14" s="13" t="s">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F14" s="4">
         <x:v>20201129</x:v>
       </x:c>
       <x:c r="G14" s="5"/>
+      <x:c r="H14" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v>INSERT INTO ICTBLOGS VALUES('1011','VCNC','VCNC','vcnc','http://engineering.vcnc.co.kr','20201129');</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
@@ -1577,7 +1685,7 @@
     <x:hyperlink ref="E13:E13" r:id="rId10"/>
     <x:hyperlink ref="E14:E14" r:id="rId11"/>
   </x:hyperlinks>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1588,7 +1696,7 @@
   <x:dimension ref="A1:I4"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E11" activeCellId="0" sqref="E11:E11"/>
+      <x:selection activeCell="H9" activeCellId="0" sqref="H9:H9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -1605,89 +1713,89 @@
   <x:sheetData>
     <x:row r="1" spans="1:9">
       <x:c r="A1" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B1" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1" s="7" t="s">
-        <x:v>62</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D1" s="7" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E1" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F1" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G1" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H1" s="7" t="s">
-        <x:v>43</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I1" s="7" t="s">
-        <x:v>45</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="A2" s="9" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B2" s="11" t="s">
-        <x:v>42</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2" s="7" t="s">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E2" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F2" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G2" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H2" s="7" t="s">
-        <x:v>44</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I2" s="7" t="s">
-        <x:v>44</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
       <x:c r="A3" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B3" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C3" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D3" s="8" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E3" s="8" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F3" s="8" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G3" s="8" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="E3" s="8" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F3" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G3" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="H3" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I3" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -1698,17 +1806,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>15</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H4">
         <x:v>20201129</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/queries/TABLES.xlsx
+++ b/queries/TABLES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22650" windowHeight="10755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22650" windowHeight="10755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ICTBLOGS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>https://developers.googleblog.com</t>
   </si>
@@ -230,6 +230,22 @@
   </si>
   <si>
     <t>banksalad</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ICT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>POSTS</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,6 +377,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -640,8 +659,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1027,10 +1046,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1045,7 +1064,7 @@
     <col min="8" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>50</v>
       </c>
@@ -1073,8 +1092,12 @@
       <c r="I1" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="str">
+        <f>CONCATENATE("INSERT INTO ",J3," ")</f>
+        <v xml:space="preserve">INSERT INTO ICTPOSTS </v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -1103,7 +1126,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>43</v>
       </c>
@@ -1131,8 +1154,11 @@
       <c r="I3" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1001</v>
       </c>
@@ -1147,11 +1173,15 @@
       </c>
       <c r="H4">
         <v>20201129</v>
+      </c>
+      <c r="J4" t="str">
+        <f>CONCATENATE($J$1,"VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"','",H4,"');")</f>
+        <v>INSERT INTO ICTPOSTS VALUES('1001','1','내가 꿈꾸는 프로그래머로서의 삶','/techcourse/2020/11/27/techcourse-level4-retrospective.html','','','','20201129');</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/queries/TABLES.xlsx
+++ b/queries/TABLES.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdy1905\Desktop\김세호\99. 기타\gh\sayho-techblog-scraper\queries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\sayho-techblog-scraper\queries\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F443209-11BE-4D6C-BE0B-17BCDEDC9412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22650" windowHeight="10755" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICTBLOGS" sheetId="1" r:id="rId1"/>
     <sheet name="ICTPOSTS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>https://developers.googleblog.com</t>
   </si>
@@ -248,11 +260,19 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>SEQUENCE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQ_ICTPOSTS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -343,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,10 +400,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1"/>
+    <cellStyle name="하이퍼링크" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -655,7 +676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -1026,17 +1047,17 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
-    <hyperlink ref="E6" r:id="rId3"/>
-    <hyperlink ref="E7" r:id="rId4"/>
-    <hyperlink ref="E8" r:id="rId5"/>
-    <hyperlink ref="E9" r:id="rId6"/>
-    <hyperlink ref="E10" r:id="rId7"/>
-    <hyperlink ref="E11" r:id="rId8"/>
-    <hyperlink ref="E12" r:id="rId9"/>
-    <hyperlink ref="E13" r:id="rId10"/>
-    <hyperlink ref="E14" r:id="rId11"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
@@ -1044,12 +1065,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1179,6 +1200,16 @@
         <v>INSERT INTO ICTPOSTS VALUES('1001','1','내가 꿈꾸는 프로그래머로서의 삶','/techcourse/2020/11/27/techcourse-level4-retrospective.html','','','','20201129');</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/queries/TABLES.xlsx
+++ b/queries/TABLES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\sayho-techblog-scraper\queries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F443209-11BE-4D6C-BE0B-17BCDEDC9412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C330429E-8975-4263-BB0B-739E60932891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>https://developers.googleblog.com</t>
   </si>
@@ -266,6 +266,10 @@
   </si>
   <si>
     <t>SQ_ICTPOSTS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(1000)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1070,7 +1074,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1129,7 +1133,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>5</v>

--- a/queries/TABLES.xlsx
+++ b/queries/TABLES.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\sayho-techblog-scraper\queries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C330429E-8975-4263-BB0B-739E60932891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F1D77E-EE45-488D-8725-2D4420213F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39435" yWindow="2490" windowWidth="21600" windowHeight="14895" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICTBLOGS" sheetId="1" r:id="rId1"/>
     <sheet name="ICTPOSTS" sheetId="2" r:id="rId2"/>
+    <sheet name="ICTVIEWLOG" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t>https://developers.googleblog.com</t>
   </si>
@@ -270,6 +271,42 @@
   </si>
   <si>
     <t>VARCHAR(1000)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(14)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회 시간</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTL_NOTE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +358,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +373,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -367,7 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -405,6 +454,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1073,8 +1137,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1219,4 +1283,78 @@
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4675EDDC-F2B4-4800-B713-FB89B2929AA1}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>